--- a/Portfolio/Transactions_13040737_2021.xlsx
+++ b/Portfolio/Transactions_13040737_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73" count="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74" count="1241">
   <si>
     <t>Date d'opération</t>
   </si>
@@ -234,6 +234,9 @@
   <si>
     <t>QUANTUM GENOMICS</t>
   </si>
+  <si>
+    <t>Vallourec SA - Rights</t>
+  </si>
 </sst>
 </file>
 
@@ -332,7 +335,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -345,7 +348,7 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.84765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.84765625" bestFit="1" customWidth="1"/>
@@ -5946,51 +5949,51 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>44203</v>
+        <v>44349</v>
       </c>
       <c r="B128" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E128">
-        <v>49439</v>
+        <v>20187715</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H128" t="s">
         <v>19</v>
       </c>
       <c r="I128">
-        <v>1910476265</v>
+        <v>2042908694</v>
       </c>
       <c r="J128">
-        <v>9400</v>
+        <v>-160</v>
       </c>
       <c r="K128">
-        <v>0.11</v>
+        <v>3.19</v>
       </c>
       <c r="L128">
-        <v>-994.2</v>
+        <v>508.22</v>
       </c>
       <c r="M128">
-        <v>-994.2</v>
+        <v>508.22</v>
       </c>
       <c r="N128">
-        <v>-994.2</v>
+        <v>508.22</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>44208</v>
+        <v>44203</v>
       </c>
       <c r="B129" t="s">
         <v>51</v>
@@ -5999,10 +6002,10 @@
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>3853478</v>
+        <v>49439</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
@@ -6014,27 +6017,27 @@
         <v>19</v>
       </c>
       <c r="I129">
-        <v>1914294823</v>
+        <v>1910476265</v>
       </c>
       <c r="J129">
-        <v>80</v>
+        <v>9400</v>
       </c>
       <c r="K129">
-        <v>12.37</v>
+        <v>0.11</v>
       </c>
       <c r="L129">
-        <v>-992.34</v>
+        <v>-994.2</v>
       </c>
       <c r="M129">
-        <v>-992.34</v>
+        <v>-994.2</v>
       </c>
       <c r="N129">
-        <v>-992.34</v>
+        <v>-994.2</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
-        <v>44221</v>
+        <v>44208</v>
       </c>
       <c r="B130" t="s">
         <v>51</v>
@@ -6043,10 +6046,10 @@
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E130">
-        <v>112808</v>
+        <v>3853478</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
@@ -6058,27 +6061,27 @@
         <v>19</v>
       </c>
       <c r="I130">
-        <v>1925735955</v>
+        <v>1914294823</v>
       </c>
       <c r="J130">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K130">
-        <v>14.8</v>
+        <v>12.37</v>
       </c>
       <c r="L130">
-        <v>-996.73</v>
+        <v>-992.34</v>
       </c>
       <c r="M130">
-        <v>-996.73</v>
+        <v>-992.34</v>
       </c>
       <c r="N130">
-        <v>-996.73</v>
+        <v>-992.34</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="B131" t="s">
         <v>51</v>
@@ -6096,28 +6099,28 @@
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H131" t="s">
         <v>19</v>
       </c>
       <c r="I131">
-        <v>1928478118</v>
+        <v>1925735955</v>
       </c>
       <c r="J131">
-        <v>-67</v>
+        <v>67</v>
       </c>
       <c r="K131">
-        <v>14.27</v>
+        <v>14.8</v>
       </c>
       <c r="L131">
-        <v>953.26</v>
+        <v>-996.73</v>
       </c>
       <c r="M131">
-        <v>953.26</v>
+        <v>-996.73</v>
       </c>
       <c r="N131">
-        <v>953.26</v>
+        <v>-996.73</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6131,42 +6134,42 @@
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E132">
-        <v>3853478</v>
+        <v>112808</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H132" t="s">
         <v>19</v>
       </c>
       <c r="I132">
-        <v>1928537627</v>
+        <v>1928478118</v>
       </c>
       <c r="J132">
-        <v>172</v>
+        <v>-67</v>
       </c>
       <c r="K132">
-        <v>12.38</v>
+        <v>14.27</v>
       </c>
       <c r="L132">
-        <v>-2134.7</v>
+        <v>953.26</v>
       </c>
       <c r="M132">
-        <v>-2134.7</v>
+        <v>953.26</v>
       </c>
       <c r="N132">
-        <v>-2134.7</v>
+        <v>953.26</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>44232</v>
+        <v>44223</v>
       </c>
       <c r="B133" t="s">
         <v>51</v>
@@ -6184,33 +6187,33 @@
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H133" t="s">
         <v>19</v>
       </c>
       <c r="I133">
-        <v>1940458366</v>
+        <v>1928537627</v>
       </c>
       <c r="J133">
-        <v>-300</v>
+        <v>172</v>
       </c>
       <c r="K133">
-        <v>11.99</v>
+        <v>12.38</v>
       </c>
       <c r="L133">
-        <v>3591.72</v>
+        <v>-2134.7</v>
       </c>
       <c r="M133">
-        <v>3591.72</v>
+        <v>-2134.7</v>
       </c>
       <c r="N133">
-        <v>3591.72</v>
+        <v>-2134.7</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="B134" t="s">
         <v>51</v>
@@ -6219,37 +6222,37 @@
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E134">
-        <v>22454</v>
+        <v>3853478</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
         <v>19</v>
       </c>
       <c r="I134">
-        <v>1941836275</v>
+        <v>1940458366</v>
       </c>
       <c r="J134">
-        <v>50</v>
+        <v>-300</v>
       </c>
       <c r="K134">
-        <v>19.02</v>
+        <v>11.99</v>
       </c>
       <c r="L134">
-        <v>-953.3</v>
+        <v>3591.72</v>
       </c>
       <c r="M134">
-        <v>-953.3</v>
+        <v>3591.72</v>
       </c>
       <c r="N134">
-        <v>-953.3</v>
+        <v>3591.72</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6263,10 +6266,10 @@
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E135">
-        <v>13142</v>
+        <v>22454</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
@@ -6278,22 +6281,22 @@
         <v>19</v>
       </c>
       <c r="I135">
-        <v>1941871096</v>
+        <v>1941836275</v>
       </c>
       <c r="J135">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>48.6</v>
+        <v>19.02</v>
       </c>
       <c r="L135">
-        <v>-977.42</v>
+        <v>-953.3</v>
       </c>
       <c r="M135">
-        <v>-977.42</v>
+        <v>-953.3</v>
       </c>
       <c r="N135">
-        <v>-977.42</v>
+        <v>-953.3</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6307,10 +6310,10 @@
         <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E136">
-        <v>49439</v>
+        <v>13142</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
@@ -6322,22 +6325,22 @@
         <v>19</v>
       </c>
       <c r="I136">
-        <v>1941947166</v>
+        <v>1941871096</v>
       </c>
       <c r="J136">
-        <v>5600</v>
+        <v>20</v>
       </c>
       <c r="K136">
-        <v>0.18</v>
+        <v>48.6</v>
       </c>
       <c r="L136">
-        <v>-988.1</v>
+        <v>-977.42</v>
       </c>
       <c r="M136">
-        <v>-988.1</v>
+        <v>-977.42</v>
       </c>
       <c r="N136">
-        <v>-988.1</v>
+        <v>-977.42</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6351,42 +6354,42 @@
         <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E137">
-        <v>3853478</v>
+        <v>49439</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H137" t="s">
         <v>19</v>
       </c>
       <c r="I137">
-        <v>1942156331</v>
+        <v>1941947166</v>
       </c>
       <c r="J137">
-        <v>-300</v>
+        <v>5600</v>
       </c>
       <c r="K137">
-        <v>11.77</v>
+        <v>0.18</v>
       </c>
       <c r="L137">
-        <v>3526</v>
+        <v>-988.1</v>
       </c>
       <c r="M137">
-        <v>3526</v>
+        <v>-988.1</v>
       </c>
       <c r="N137">
-        <v>3526</v>
+        <v>-988.1</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="B138" t="s">
         <v>51</v>
@@ -6395,42 +6398,42 @@
         <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E138">
-        <v>25345</v>
+        <v>3853478</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H138" t="s">
         <v>19</v>
       </c>
       <c r="I138">
-        <v>1945325585</v>
+        <v>1942156331</v>
       </c>
       <c r="J138">
-        <v>1350</v>
+        <v>-300</v>
       </c>
       <c r="K138">
-        <v>2.18</v>
+        <v>11.77</v>
       </c>
       <c r="L138">
-        <v>-2952.05</v>
+        <v>3526</v>
       </c>
       <c r="M138">
-        <v>-2952.05</v>
+        <v>3526</v>
       </c>
       <c r="N138">
-        <v>-2952.05</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B139" t="s">
         <v>51</v>
@@ -6439,42 +6442,42 @@
         <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E139">
-        <v>22454</v>
+        <v>25345</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
         <v>19</v>
       </c>
       <c r="I139">
-        <v>1946043558</v>
+        <v>1945325585</v>
       </c>
       <c r="J139">
-        <v>-50</v>
+        <v>1350</v>
       </c>
       <c r="K139">
-        <v>18.92</v>
+        <v>2.18</v>
       </c>
       <c r="L139">
-        <v>943.3</v>
+        <v>-2952.05</v>
       </c>
       <c r="M139">
-        <v>943.3</v>
+        <v>-2952.05</v>
       </c>
       <c r="N139">
-        <v>943.3</v>
+        <v>-2952.05</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B140" t="s">
         <v>51</v>
@@ -6483,10 +6486,10 @@
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E140">
-        <v>13142</v>
+        <v>22454</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -6498,22 +6501,22 @@
         <v>19</v>
       </c>
       <c r="I140">
-        <v>1947293540</v>
+        <v>1946043558</v>
       </c>
       <c r="J140">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="K140">
-        <v>50.08</v>
+        <v>18.92</v>
       </c>
       <c r="L140">
-        <v>996.56</v>
+        <v>943.3</v>
       </c>
       <c r="M140">
-        <v>996.56</v>
+        <v>943.3</v>
       </c>
       <c r="N140">
-        <v>996.56</v>
+        <v>943.3</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6527,42 +6530,42 @@
         <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E141">
-        <v>25345</v>
+        <v>13142</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
       </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H141" t="s">
         <v>19</v>
       </c>
       <c r="I141">
-        <v>1947851691</v>
+        <v>1947293540</v>
       </c>
       <c r="J141">
-        <v>1350</v>
+        <v>-20</v>
       </c>
       <c r="K141">
-        <v>2.14</v>
+        <v>50.08</v>
       </c>
       <c r="L141">
-        <v>-2896.02</v>
+        <v>996.56</v>
       </c>
       <c r="M141">
-        <v>-2896.02</v>
+        <v>996.56</v>
       </c>
       <c r="N141">
-        <v>-2896.02</v>
+        <v>996.56</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="B142" t="s">
         <v>51</v>
@@ -6571,10 +6574,10 @@
         <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E142">
-        <v>3844730</v>
+        <v>25345</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
@@ -6586,22 +6589,22 @@
         <v>19</v>
       </c>
       <c r="I142">
-        <v>1948447224</v>
+        <v>1947851691</v>
       </c>
       <c r="J142">
-        <v>109</v>
+        <v>1350</v>
       </c>
       <c r="K142">
-        <v>9.09</v>
+        <v>2.14</v>
       </c>
       <c r="L142">
-        <v>-993.31</v>
+        <v>-2896.02</v>
       </c>
       <c r="M142">
-        <v>-993.31</v>
+        <v>-2896.02</v>
       </c>
       <c r="N142">
-        <v>-993.31</v>
+        <v>-2896.02</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6615,10 +6618,10 @@
         <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E143">
-        <v>1242522</v>
+        <v>3844730</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -6630,27 +6633,27 @@
         <v>19</v>
       </c>
       <c r="I143">
-        <v>1948461136</v>
+        <v>1948447224</v>
       </c>
       <c r="J143">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K143">
-        <v>7.35</v>
+        <v>9.09</v>
       </c>
       <c r="L143">
-        <v>-887.15</v>
+        <v>-993.31</v>
       </c>
       <c r="M143">
-        <v>-887.15</v>
+        <v>-993.31</v>
       </c>
       <c r="N143">
-        <v>-887.15</v>
+        <v>-993.31</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B144" t="s">
         <v>51</v>
@@ -6659,42 +6662,42 @@
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E144">
-        <v>3844730</v>
+        <v>1242522</v>
       </c>
       <c r="F144" t="s">
         <v>17</v>
       </c>
       <c r="G144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H144" t="s">
         <v>19</v>
       </c>
       <c r="I144">
-        <v>1949053395</v>
+        <v>1948461136</v>
       </c>
       <c r="J144">
-        <v>-109</v>
+        <v>120</v>
       </c>
       <c r="K144">
-        <v>8.99</v>
+        <v>7.35</v>
       </c>
       <c r="L144">
-        <v>977.41</v>
+        <v>-887.15</v>
       </c>
       <c r="M144">
-        <v>977.41</v>
+        <v>-887.15</v>
       </c>
       <c r="N144">
-        <v>977.41</v>
+        <v>-887.15</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B145" t="s">
         <v>51</v>
@@ -6703,37 +6706,37 @@
         <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E145">
-        <v>25345</v>
+        <v>3844730</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
       </c>
       <c r="G145" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H145" t="s">
         <v>19</v>
       </c>
       <c r="I145">
-        <v>1951152110</v>
+        <v>1949053395</v>
       </c>
       <c r="J145">
-        <v>1300</v>
+        <v>-109</v>
       </c>
       <c r="K145">
-        <v>2.08</v>
+        <v>8.99</v>
       </c>
       <c r="L145">
-        <v>-2710.3</v>
+        <v>977.41</v>
       </c>
       <c r="M145">
-        <v>-2710.3</v>
+        <v>977.41</v>
       </c>
       <c r="N145">
-        <v>-2710.3</v>
+        <v>977.41</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6747,42 +6750,42 @@
         <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E146">
-        <v>1242522</v>
+        <v>25345</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
       </c>
       <c r="G146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H146" t="s">
         <v>19</v>
       </c>
       <c r="I146">
-        <v>1951252232</v>
+        <v>1951152110</v>
       </c>
       <c r="J146">
-        <v>-120</v>
+        <v>1300</v>
       </c>
       <c r="K146">
-        <v>7.45</v>
+        <v>2.08</v>
       </c>
       <c r="L146">
-        <v>890.9</v>
+        <v>-2710.3</v>
       </c>
       <c r="M146">
-        <v>890.9</v>
+        <v>-2710.3</v>
       </c>
       <c r="N146">
-        <v>890.9</v>
+        <v>-2710.3</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B147" t="s">
         <v>51</v>
@@ -6791,10 +6794,10 @@
         <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E147">
-        <v>49439</v>
+        <v>1242522</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
@@ -6806,27 +6809,27 @@
         <v>19</v>
       </c>
       <c r="I147">
-        <v>1952108311</v>
+        <v>1951252232</v>
       </c>
       <c r="J147">
-        <v>-15000</v>
+        <v>-120</v>
       </c>
       <c r="K147">
-        <v>0.16</v>
+        <v>7.45</v>
       </c>
       <c r="L147">
-        <v>2468.02</v>
+        <v>890.9</v>
       </c>
       <c r="M147">
-        <v>2468.02</v>
+        <v>890.9</v>
       </c>
       <c r="N147">
-        <v>2468.02</v>
+        <v>890.9</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
-        <v>44249</v>
+        <v>44245</v>
       </c>
       <c r="B148" t="s">
         <v>51</v>
@@ -6835,37 +6838,37 @@
         <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E148">
-        <v>11114004</v>
+        <v>49439</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
       </c>
       <c r="G148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H148" t="s">
         <v>19</v>
       </c>
       <c r="I148">
-        <v>1955055490</v>
+        <v>1952108311</v>
       </c>
       <c r="J148">
-        <v>18</v>
+        <v>-15000</v>
       </c>
       <c r="K148">
-        <v>51.2</v>
+        <v>0.16</v>
       </c>
       <c r="L148">
-        <v>-924.1</v>
+        <v>2468.02</v>
       </c>
       <c r="M148">
-        <v>-924.1</v>
+        <v>2468.02</v>
       </c>
       <c r="N148">
-        <v>-924.1</v>
+        <v>2468.02</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6888,33 +6891,33 @@
         <v>17</v>
       </c>
       <c r="G149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H149" t="s">
         <v>19</v>
       </c>
       <c r="I149">
-        <v>1955242702</v>
+        <v>1955055490</v>
       </c>
       <c r="J149">
-        <v>-18</v>
+        <v>18</v>
       </c>
       <c r="K149">
-        <v>49.8</v>
+        <v>51.2</v>
       </c>
       <c r="L149">
-        <v>893.9</v>
+        <v>-924.1</v>
       </c>
       <c r="M149">
-        <v>893.9</v>
+        <v>-924.1</v>
       </c>
       <c r="N149">
-        <v>893.9</v>
+        <v>-924.1</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
-        <v>44252</v>
+        <v>44249</v>
       </c>
       <c r="B150" t="s">
         <v>51</v>
@@ -6923,37 +6926,37 @@
         <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E150">
-        <v>2159003</v>
+        <v>11114004</v>
       </c>
       <c r="F150" t="s">
         <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
         <v>19</v>
       </c>
       <c r="I150">
-        <v>1959258108</v>
+        <v>1955242702</v>
       </c>
       <c r="J150">
-        <v>688</v>
+        <v>-18</v>
       </c>
       <c r="K150">
-        <v>1.37</v>
+        <v>49.8</v>
       </c>
       <c r="L150">
-        <v>-942.31</v>
+        <v>893.9</v>
       </c>
       <c r="M150">
-        <v>-942.31</v>
+        <v>893.9</v>
       </c>
       <c r="N150">
-        <v>-942.31</v>
+        <v>893.9</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -6967,10 +6970,10 @@
         <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E151">
-        <v>8820998</v>
+        <v>2159003</v>
       </c>
       <c r="F151" t="s">
         <v>17</v>
@@ -6982,22 +6985,22 @@
         <v>19</v>
       </c>
       <c r="I151">
-        <v>1959480841</v>
+        <v>1959258108</v>
       </c>
       <c r="J151">
-        <v>61</v>
+        <v>688</v>
       </c>
       <c r="K151">
-        <v>14.85</v>
+        <v>1.37</v>
       </c>
       <c r="L151">
-        <v>-908.35</v>
+        <v>-942.31</v>
       </c>
       <c r="M151">
-        <v>-908.35</v>
+        <v>-942.31</v>
       </c>
       <c r="N151">
-        <v>-908.35</v>
+        <v>-942.31</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7011,10 +7014,10 @@
         <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E152">
-        <v>12768</v>
+        <v>8820998</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -7026,27 +7029,27 @@
         <v>19</v>
       </c>
       <c r="I152">
-        <v>1959515938</v>
+        <v>1959480841</v>
       </c>
       <c r="J152">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K152">
-        <v>16.82</v>
+        <v>14.85</v>
       </c>
       <c r="L152">
-        <v>-913.5</v>
+        <v>-908.35</v>
       </c>
       <c r="M152">
-        <v>-913.5</v>
+        <v>-908.35</v>
       </c>
       <c r="N152">
-        <v>-913.5</v>
+        <v>-908.35</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B153" t="s">
         <v>51</v>
@@ -7055,10 +7058,10 @@
         <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E153">
-        <v>52312</v>
+        <v>12768</v>
       </c>
       <c r="F153" t="s">
         <v>17</v>
@@ -7070,22 +7073,22 @@
         <v>19</v>
       </c>
       <c r="I153">
-        <v>1961241819</v>
+        <v>1959515938</v>
       </c>
       <c r="J153">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K153">
-        <v>27.2</v>
+        <v>16.82</v>
       </c>
       <c r="L153">
-        <v>-900.1</v>
+        <v>-913.5</v>
       </c>
       <c r="M153">
-        <v>-900.1</v>
+        <v>-913.5</v>
       </c>
       <c r="N153">
-        <v>-900.1</v>
+        <v>-913.5</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7099,10 +7102,10 @@
         <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E154">
-        <v>32220</v>
+        <v>52312</v>
       </c>
       <c r="F154" t="s">
         <v>17</v>
@@ -7114,27 +7117,27 @@
         <v>19</v>
       </c>
       <c r="I154">
-        <v>1961554237</v>
+        <v>1961241819</v>
       </c>
       <c r="J154">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K154">
-        <v>89.2</v>
+        <v>27.2</v>
       </c>
       <c r="L154">
-        <v>-894.5</v>
+        <v>-900.1</v>
       </c>
       <c r="M154">
-        <v>-894.5</v>
+        <v>-900.1</v>
       </c>
       <c r="N154">
-        <v>-894.5</v>
+        <v>-900.1</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>44256</v>
+        <v>44253</v>
       </c>
       <c r="B155" t="s">
         <v>51</v>
@@ -7143,10 +7146,10 @@
         <v>21</v>
       </c>
       <c r="D155" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E155">
-        <v>12768</v>
+        <v>32220</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
@@ -7158,22 +7161,22 @@
         <v>19</v>
       </c>
       <c r="I155">
-        <v>1962796726</v>
+        <v>1961554237</v>
       </c>
       <c r="J155">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="K155">
-        <v>17.06</v>
+        <v>89.2</v>
       </c>
       <c r="L155">
-        <v>-926.5</v>
+        <v>-894.5</v>
       </c>
       <c r="M155">
-        <v>-926.5</v>
+        <v>-894.5</v>
       </c>
       <c r="N155">
-        <v>-926.5</v>
+        <v>-894.5</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7187,37 +7190,37 @@
         <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E156">
-        <v>25345</v>
+        <v>12768</v>
       </c>
       <c r="F156" t="s">
         <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H156" t="s">
         <v>19</v>
       </c>
       <c r="I156">
-        <v>1962825930</v>
+        <v>1962796726</v>
       </c>
       <c r="J156">
-        <v>-1450</v>
+        <v>54</v>
       </c>
       <c r="K156">
-        <v>2.07</v>
+        <v>17.06</v>
       </c>
       <c r="L156">
-        <v>2989.25</v>
+        <v>-926.5</v>
       </c>
       <c r="M156">
-        <v>2989.25</v>
+        <v>-926.5</v>
       </c>
       <c r="N156">
-        <v>2989.25</v>
+        <v>-926.5</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7231,37 +7234,37 @@
         <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E157">
-        <v>339393</v>
+        <v>25345</v>
       </c>
       <c r="F157" t="s">
         <v>17</v>
       </c>
       <c r="G157" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H157" t="s">
         <v>19</v>
       </c>
       <c r="I157">
-        <v>1962826904</v>
+        <v>1962825930</v>
       </c>
       <c r="J157">
-        <v>920</v>
+        <v>-1450</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>2.07</v>
       </c>
       <c r="L157">
-        <v>-922.13</v>
+        <v>2989.25</v>
       </c>
       <c r="M157">
-        <v>-922.13</v>
+        <v>2989.25</v>
       </c>
       <c r="N157">
-        <v>-922.13</v>
+        <v>2989.25</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7275,10 +7278,10 @@
         <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E158">
-        <v>13110</v>
+        <v>339393</v>
       </c>
       <c r="F158" t="s">
         <v>17</v>
@@ -7290,27 +7293,27 @@
         <v>19</v>
       </c>
       <c r="I158">
-        <v>1962830559</v>
+        <v>1962826904</v>
       </c>
       <c r="J158">
-        <v>19</v>
+        <v>920</v>
       </c>
       <c r="K158">
-        <v>47.7</v>
+        <v>1</v>
       </c>
       <c r="L158">
-        <v>-911.52</v>
+        <v>-922.13</v>
       </c>
       <c r="M158">
-        <v>-911.52</v>
+        <v>-922.13</v>
       </c>
       <c r="N158">
-        <v>-911.52</v>
+        <v>-922.13</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
-        <v>44258</v>
+        <v>44256</v>
       </c>
       <c r="B159" t="s">
         <v>51</v>
@@ -7319,10 +7322,10 @@
         <v>21</v>
       </c>
       <c r="D159" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E159">
-        <v>339393</v>
+        <v>13110</v>
       </c>
       <c r="F159" t="s">
         <v>17</v>
@@ -7334,22 +7337,22 @@
         <v>19</v>
       </c>
       <c r="I159">
-        <v>1965437024</v>
+        <v>1962830559</v>
       </c>
       <c r="J159">
-        <v>907</v>
+        <v>19</v>
       </c>
       <c r="K159">
-        <v>1.01</v>
+        <v>47.7</v>
       </c>
       <c r="L159">
-        <v>-921.74</v>
+        <v>-911.52</v>
       </c>
       <c r="M159">
-        <v>-921.74</v>
+        <v>-911.52</v>
       </c>
       <c r="N159">
-        <v>-921.74</v>
+        <v>-911.52</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7363,37 +7366,37 @@
         <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E160">
-        <v>25345</v>
+        <v>339393</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
       </c>
       <c r="G160" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H160" t="s">
         <v>19</v>
       </c>
       <c r="I160">
-        <v>1965467508</v>
+        <v>1965437024</v>
       </c>
       <c r="J160">
-        <v>-1450</v>
+        <v>907</v>
       </c>
       <c r="K160">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="L160">
-        <v>2925.45</v>
+        <v>-921.74</v>
       </c>
       <c r="M160">
-        <v>2925.45</v>
+        <v>-921.74</v>
       </c>
       <c r="N160">
-        <v>2925.45</v>
+        <v>-921.74</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7407,37 +7410,37 @@
         <v>21</v>
       </c>
       <c r="D161" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E161">
-        <v>10961403</v>
+        <v>25345</v>
       </c>
       <c r="F161" t="s">
         <v>17</v>
       </c>
       <c r="G161" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H161" t="s">
         <v>19</v>
       </c>
       <c r="I161">
-        <v>1965538011</v>
+        <v>1965467508</v>
       </c>
       <c r="J161">
-        <v>200</v>
+        <v>-1450</v>
       </c>
       <c r="K161">
-        <v>3.54</v>
+        <v>2.02</v>
       </c>
       <c r="L161">
-        <v>-709.5</v>
+        <v>2925.45</v>
       </c>
       <c r="M161">
-        <v>-709.5</v>
+        <v>2925.45</v>
       </c>
       <c r="N161">
-        <v>-709.5</v>
+        <v>2925.45</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -7451,42 +7454,42 @@
         <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E162">
-        <v>2159003</v>
+        <v>10961403</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H162" t="s">
         <v>19</v>
       </c>
       <c r="I162">
-        <v>1965746543</v>
+        <v>1965538011</v>
       </c>
       <c r="J162">
-        <v>-688</v>
+        <v>200</v>
       </c>
       <c r="K162">
-        <v>1.26</v>
+        <v>3.54</v>
       </c>
       <c r="L162">
-        <v>865.76</v>
+        <v>-709.5</v>
       </c>
       <c r="M162">
-        <v>865.76</v>
+        <v>-709.5</v>
       </c>
       <c r="N162">
-        <v>865.76</v>
+        <v>-709.5</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
-        <v>44260</v>
+        <v>44258</v>
       </c>
       <c r="B163" t="s">
         <v>51</v>
@@ -7495,10 +7498,10 @@
         <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E163">
-        <v>8820998</v>
+        <v>2159003</v>
       </c>
       <c r="F163" t="s">
         <v>17</v>
@@ -7510,27 +7513,27 @@
         <v>19</v>
       </c>
       <c r="I163">
-        <v>1968864033</v>
+        <v>1965746543</v>
       </c>
       <c r="J163">
-        <v>-61</v>
+        <v>-688</v>
       </c>
       <c r="K163">
-        <v>13.55</v>
+        <v>1.26</v>
       </c>
       <c r="L163">
-        <v>824.05</v>
+        <v>865.76</v>
       </c>
       <c r="M163">
-        <v>824.05</v>
+        <v>865.76</v>
       </c>
       <c r="N163">
-        <v>824.05</v>
+        <v>865.76</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
-        <v>44263</v>
+        <v>44260</v>
       </c>
       <c r="B164" t="s">
         <v>51</v>
@@ -7539,37 +7542,37 @@
         <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E164">
-        <v>13110</v>
+        <v>8820998</v>
       </c>
       <c r="F164" t="s">
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H164" t="s">
         <v>19</v>
       </c>
       <c r="I164">
-        <v>1970616107</v>
+        <v>1968864033</v>
       </c>
       <c r="J164">
-        <v>18</v>
+        <v>-61</v>
       </c>
       <c r="K164">
-        <v>49.08</v>
+        <v>13.55</v>
       </c>
       <c r="L164">
-        <v>-888.59</v>
+        <v>824.05</v>
       </c>
       <c r="M164">
-        <v>-888.59</v>
+        <v>824.05</v>
       </c>
       <c r="N164">
-        <v>-888.59</v>
+        <v>824.05</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -7583,42 +7586,42 @@
         <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E165">
-        <v>25345</v>
+        <v>13110</v>
       </c>
       <c r="F165" t="s">
         <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H165" t="s">
         <v>19</v>
       </c>
       <c r="I165">
-        <v>1971421168</v>
+        <v>1970616107</v>
       </c>
       <c r="J165">
-        <v>-1100</v>
+        <v>18</v>
       </c>
       <c r="K165">
-        <v>1.98</v>
+        <v>49.08</v>
       </c>
       <c r="L165">
-        <v>2176.74</v>
+        <v>-888.59</v>
       </c>
       <c r="M165">
-        <v>2176.74</v>
+        <v>-888.59</v>
       </c>
       <c r="N165">
-        <v>2176.74</v>
+        <v>-888.59</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B166" t="s">
         <v>51</v>
@@ -7627,10 +7630,10 @@
         <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E166">
-        <v>10961403</v>
+        <v>25345</v>
       </c>
       <c r="F166" t="s">
         <v>17</v>
@@ -7642,27 +7645,27 @@
         <v>19</v>
       </c>
       <c r="I166">
-        <v>1972887370</v>
+        <v>1971421168</v>
       </c>
       <c r="J166">
-        <v>-200</v>
+        <v>-1100</v>
       </c>
       <c r="K166">
-        <v>3.19</v>
+        <v>1.98</v>
       </c>
       <c r="L166">
-        <v>634.5</v>
+        <v>2176.74</v>
       </c>
       <c r="M166">
-        <v>634.5</v>
+        <v>2176.74</v>
       </c>
       <c r="N166">
-        <v>634.5</v>
+        <v>2176.74</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B167" t="s">
         <v>51</v>
@@ -7671,42 +7674,42 @@
         <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E167">
-        <v>23919</v>
+        <v>10961403</v>
       </c>
       <c r="F167" t="s">
         <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H167" t="s">
         <v>19</v>
       </c>
       <c r="I167">
-        <v>1973816510</v>
+        <v>1972887370</v>
       </c>
       <c r="J167">
-        <v>240</v>
+        <v>-200</v>
       </c>
       <c r="K167">
-        <v>3.8</v>
+        <v>3.19</v>
       </c>
       <c r="L167">
-        <v>-914.5</v>
+        <v>634.5</v>
       </c>
       <c r="M167">
-        <v>-914.5</v>
+        <v>634.5</v>
       </c>
       <c r="N167">
-        <v>-914.5</v>
+        <v>634.5</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B168" t="s">
         <v>51</v>
@@ -7715,10 +7718,10 @@
         <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E168">
-        <v>112808</v>
+        <v>23919</v>
       </c>
       <c r="F168" t="s">
         <v>17</v>
@@ -7730,27 +7733,27 @@
         <v>19</v>
       </c>
       <c r="I168">
-        <v>1975264151</v>
+        <v>1973816510</v>
       </c>
       <c r="J168">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="K168">
-        <v>14.62</v>
+        <v>3.8</v>
       </c>
       <c r="L168">
-        <v>-940.99</v>
+        <v>-914.5</v>
       </c>
       <c r="M168">
-        <v>-940.99</v>
+        <v>-914.5</v>
       </c>
       <c r="N168">
-        <v>-940.99</v>
+        <v>-914.5</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="B169" t="s">
         <v>51</v>
@@ -7759,10 +7762,10 @@
         <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E169">
-        <v>49439</v>
+        <v>112808</v>
       </c>
       <c r="F169" t="s">
         <v>17</v>
@@ -7774,22 +7777,22 @@
         <v>19</v>
       </c>
       <c r="I169">
-        <v>1978814398</v>
+        <v>1975264151</v>
       </c>
       <c r="J169">
-        <v>4700</v>
+        <v>64</v>
       </c>
       <c r="K169">
-        <v>0.19</v>
+        <v>14.62</v>
       </c>
       <c r="L169">
-        <v>-904.9</v>
+        <v>-940.99</v>
       </c>
       <c r="M169">
-        <v>-904.9</v>
+        <v>-940.99</v>
       </c>
       <c r="N169">
-        <v>-904.9</v>
+        <v>-940.99</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -7803,10 +7806,10 @@
         <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>339393</v>
+        <v>49439</v>
       </c>
       <c r="F170" t="s">
         <v>17</v>
@@ -7818,27 +7821,27 @@
         <v>19</v>
       </c>
       <c r="I170">
-        <v>1979332444</v>
+        <v>1978814398</v>
       </c>
       <c r="J170">
-        <v>900</v>
+        <v>4700</v>
       </c>
       <c r="K170">
-        <v>1.11</v>
+        <v>0.19</v>
       </c>
       <c r="L170">
-        <v>-1000.6</v>
+        <v>-904.9</v>
       </c>
       <c r="M170">
-        <v>-1000.6</v>
+        <v>-904.9</v>
       </c>
       <c r="N170">
-        <v>-1000.6</v>
+        <v>-904.9</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
-        <v>44273</v>
+        <v>44271</v>
       </c>
       <c r="B171" t="s">
         <v>51</v>
@@ -7856,33 +7859,33 @@
         <v>17</v>
       </c>
       <c r="G171" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H171" t="s">
         <v>19</v>
       </c>
       <c r="I171">
-        <v>1981289704</v>
+        <v>1979332444</v>
       </c>
       <c r="J171">
-        <v>-850</v>
+        <v>900</v>
       </c>
       <c r="K171">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="L171">
-        <v>997.1</v>
+        <v>-1000.6</v>
       </c>
       <c r="M171">
-        <v>997.1</v>
+        <v>-1000.6</v>
       </c>
       <c r="N171">
-        <v>997.1</v>
+        <v>-1000.6</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
-        <v>44278</v>
+        <v>44273</v>
       </c>
       <c r="B172" t="s">
         <v>51</v>
@@ -7891,10 +7894,10 @@
         <v>21</v>
       </c>
       <c r="D172" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E172">
-        <v>32220</v>
+        <v>339393</v>
       </c>
       <c r="F172" t="s">
         <v>17</v>
@@ -7906,27 +7909,27 @@
         <v>19</v>
       </c>
       <c r="I172">
-        <v>1984784257</v>
+        <v>1981289704</v>
       </c>
       <c r="J172">
-        <v>-10</v>
+        <v>-850</v>
       </c>
       <c r="K172">
-        <v>84.3</v>
+        <v>1.18</v>
       </c>
       <c r="L172">
-        <v>840.5</v>
+        <v>997.1</v>
       </c>
       <c r="M172">
-        <v>840.5</v>
+        <v>997.1</v>
       </c>
       <c r="N172">
-        <v>840.5</v>
+        <v>997.1</v>
       </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B173" t="s">
         <v>51</v>
@@ -7935,42 +7938,42 @@
         <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E173">
-        <v>112808</v>
+        <v>32220</v>
       </c>
       <c r="F173" t="s">
         <v>17</v>
       </c>
       <c r="G173" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H173" t="s">
         <v>19</v>
       </c>
       <c r="I173">
-        <v>1985941417</v>
+        <v>1984784257</v>
       </c>
       <c r="J173">
-        <v>64</v>
+        <v>-10</v>
       </c>
       <c r="K173">
-        <v>14.87</v>
+        <v>84.3</v>
       </c>
       <c r="L173">
-        <v>-957.04</v>
+        <v>840.5</v>
       </c>
       <c r="M173">
-        <v>-957.04</v>
+        <v>840.5</v>
       </c>
       <c r="N173">
-        <v>-957.04</v>
+        <v>840.5</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
-        <v>44281</v>
+        <v>44279</v>
       </c>
       <c r="B174" t="s">
         <v>51</v>
@@ -7979,37 +7982,37 @@
         <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E174">
-        <v>49439</v>
+        <v>112808</v>
       </c>
       <c r="F174" t="s">
         <v>17</v>
       </c>
       <c r="G174" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H174" t="s">
         <v>19</v>
       </c>
       <c r="I174">
-        <v>1988545319</v>
+        <v>1985941417</v>
       </c>
       <c r="J174">
-        <v>-4700</v>
+        <v>64</v>
       </c>
       <c r="K174">
-        <v>0.17</v>
+        <v>14.87</v>
       </c>
       <c r="L174">
-        <v>787.1</v>
+        <v>-957.04</v>
       </c>
       <c r="M174">
-        <v>787.1</v>
+        <v>-957.04</v>
       </c>
       <c r="N174">
-        <v>787.1</v>
+        <v>-957.04</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8023,42 +8026,42 @@
         <v>21</v>
       </c>
       <c r="D175" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E175">
-        <v>8704739</v>
+        <v>49439</v>
       </c>
       <c r="F175" t="s">
         <v>17</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H175" t="s">
         <v>19</v>
       </c>
       <c r="I175">
-        <v>1988671724</v>
+        <v>1988545319</v>
       </c>
       <c r="J175">
-        <v>560</v>
+        <v>-4700</v>
       </c>
       <c r="K175">
-        <v>1.64</v>
+        <v>0.17</v>
       </c>
       <c r="L175">
-        <v>-920.9</v>
+        <v>787.1</v>
       </c>
       <c r="M175">
-        <v>-920.9</v>
+        <v>787.1</v>
       </c>
       <c r="N175">
-        <v>-920.9</v>
+        <v>787.1</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
-        <v>44284</v>
+        <v>44281</v>
       </c>
       <c r="B176" t="s">
         <v>51</v>
@@ -8067,10 +8070,10 @@
         <v>21</v>
       </c>
       <c r="D176" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E176">
-        <v>12624</v>
+        <v>8704739</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
@@ -8082,27 +8085,27 @@
         <v>19</v>
       </c>
       <c r="I176">
-        <v>1989869640</v>
+        <v>1988671724</v>
       </c>
       <c r="J176">
-        <v>58</v>
+        <v>560</v>
       </c>
       <c r="K176">
-        <v>16.36</v>
+        <v>1.64</v>
       </c>
       <c r="L176">
-        <v>-954.23</v>
+        <v>-920.9</v>
       </c>
       <c r="M176">
-        <v>-954.23</v>
+        <v>-920.9</v>
       </c>
       <c r="N176">
-        <v>-954.23</v>
+        <v>-920.9</v>
       </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B177" t="s">
         <v>51</v>
@@ -8111,42 +8114,42 @@
         <v>21</v>
       </c>
       <c r="D177" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E177">
-        <v>8704739</v>
+        <v>12624</v>
       </c>
       <c r="F177" t="s">
         <v>17</v>
       </c>
       <c r="G177" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H177" t="s">
         <v>19</v>
       </c>
       <c r="I177">
-        <v>1990695330</v>
+        <v>1989869640</v>
       </c>
       <c r="J177">
-        <v>-560</v>
+        <v>58</v>
       </c>
       <c r="K177">
-        <v>1.77</v>
+        <v>16.36</v>
       </c>
       <c r="L177">
-        <v>988.7</v>
+        <v>-954.23</v>
       </c>
       <c r="M177">
-        <v>988.7</v>
+        <v>-954.23</v>
       </c>
       <c r="N177">
-        <v>988.7</v>
+        <v>-954.23</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
-        <v>44287</v>
+        <v>44285</v>
       </c>
       <c r="B178" t="s">
         <v>51</v>
@@ -8155,10 +8158,10 @@
         <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E178">
-        <v>52312</v>
+        <v>8704739</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
@@ -8170,27 +8173,27 @@
         <v>19</v>
       </c>
       <c r="I178">
-        <v>1992567037</v>
+        <v>1990695330</v>
       </c>
       <c r="J178">
-        <v>-33</v>
+        <v>-560</v>
       </c>
       <c r="K178">
-        <v>23.6</v>
+        <v>1.77</v>
       </c>
       <c r="L178">
-        <v>776.3</v>
+        <v>988.7</v>
       </c>
       <c r="M178">
-        <v>776.3</v>
+        <v>988.7</v>
       </c>
       <c r="N178">
-        <v>776.3</v>
+        <v>988.7</v>
       </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
-        <v>44307</v>
+        <v>44287</v>
       </c>
       <c r="B179" t="s">
         <v>51</v>
@@ -8199,42 +8202,42 @@
         <v>21</v>
       </c>
       <c r="D179" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E179">
-        <v>12624</v>
+        <v>52312</v>
       </c>
       <c r="F179" t="s">
         <v>17</v>
       </c>
       <c r="G179" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H179" t="s">
         <v>19</v>
       </c>
       <c r="I179">
-        <v>2007964353</v>
+        <v>1992567037</v>
       </c>
       <c r="J179">
-        <v>62</v>
+        <v>-33</v>
       </c>
       <c r="K179">
-        <v>14.7</v>
+        <v>23.6</v>
       </c>
       <c r="L179">
-        <v>-916.63</v>
+        <v>776.3</v>
       </c>
       <c r="M179">
-        <v>-916.63</v>
+        <v>776.3</v>
       </c>
       <c r="N179">
-        <v>-916.63</v>
+        <v>776.3</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="B180" t="s">
         <v>51</v>
@@ -8249,31 +8252,31 @@
         <v>12624</v>
       </c>
       <c r="F180" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G180" t="s">
-        <v>68</v>
-      </c>
-      <c r="H180">
-        <v>8714772</v>
-      </c>
-      <c r="I180" t="s">
-        <v>19</v>
-      </c>
-      <c r="J180" t="s">
-        <v>19</v>
-      </c>
-      <c r="K180" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H180" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180">
+        <v>2007964353</v>
+      </c>
+      <c r="J180">
+        <v>62</v>
+      </c>
+      <c r="K180">
+        <v>14.7</v>
       </c>
       <c r="L180">
-        <v>44.66</v>
+        <v>-916.63</v>
       </c>
       <c r="M180">
-        <v>44.66</v>
+        <v>-916.63</v>
       </c>
       <c r="N180">
-        <v>44.66</v>
+        <v>-916.63</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8299,7 +8302,7 @@
         <v>68</v>
       </c>
       <c r="H181">
-        <v>8750585</v>
+        <v>8714772</v>
       </c>
       <c r="I181" t="s">
         <v>19</v>
@@ -8311,13 +8314,13 @@
         <v>19</v>
       </c>
       <c r="L181">
-        <v>46.4</v>
+        <v>44.66</v>
       </c>
       <c r="M181">
-        <v>46.4</v>
+        <v>44.66</v>
       </c>
       <c r="N181">
-        <v>46.4</v>
+        <v>44.66</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -8331,42 +8334,42 @@
         <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E182">
-        <v>339393</v>
+        <v>12624</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G182" t="s">
-        <v>18</v>
-      </c>
-      <c r="H182" t="s">
-        <v>19</v>
-      </c>
-      <c r="I182">
-        <v>2010051958</v>
-      </c>
-      <c r="J182">
-        <v>1023</v>
-      </c>
-      <c r="K182">
-        <v>0.92</v>
+        <v>68</v>
+      </c>
+      <c r="H182">
+        <v>8750585</v>
+      </c>
+      <c r="I182" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" t="s">
+        <v>19</v>
+      </c>
+      <c r="K182" t="s">
+        <v>19</v>
       </c>
       <c r="L182">
-        <v>-945.3</v>
+        <v>46.4</v>
       </c>
       <c r="M182">
-        <v>-945.3</v>
+        <v>46.4</v>
       </c>
       <c r="N182">
-        <v>-945.3</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="B183" t="s">
         <v>51</v>
@@ -8375,10 +8378,10 @@
         <v>21</v>
       </c>
       <c r="D183" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E183">
-        <v>117274</v>
+        <v>339393</v>
       </c>
       <c r="F183" t="s">
         <v>17</v>
@@ -8390,27 +8393,27 @@
         <v>19</v>
       </c>
       <c r="I183">
-        <v>2015453558</v>
+        <v>2010051958</v>
       </c>
       <c r="J183">
-        <v>36</v>
+        <v>1023</v>
       </c>
       <c r="K183">
-        <v>27.26</v>
+        <v>0.92</v>
       </c>
       <c r="L183">
-        <v>-983.86</v>
+        <v>-945.3</v>
       </c>
       <c r="M183">
-        <v>-983.86</v>
+        <v>-945.3</v>
       </c>
       <c r="N183">
-        <v>-983.86</v>
+        <v>-945.3</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="B184" t="s">
         <v>51</v>
@@ -8419,37 +8422,37 @@
         <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E184">
-        <v>339393</v>
+        <v>117274</v>
       </c>
       <c r="F184" t="s">
         <v>17</v>
       </c>
       <c r="G184" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H184" t="s">
         <v>19</v>
       </c>
       <c r="I184">
-        <v>2017639390</v>
+        <v>2015453558</v>
       </c>
       <c r="J184">
-        <v>-1000</v>
+        <v>36</v>
       </c>
       <c r="K184">
-        <v>0.99</v>
+        <v>27.26</v>
       </c>
       <c r="L184">
-        <v>986.1</v>
+        <v>-983.86</v>
       </c>
       <c r="M184">
-        <v>986.1</v>
+        <v>-983.86</v>
       </c>
       <c r="N184">
-        <v>986.1</v>
+        <v>-983.86</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -8463,42 +8466,42 @@
         <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E185">
-        <v>25345</v>
+        <v>339393</v>
       </c>
       <c r="F185" t="s">
         <v>17</v>
       </c>
       <c r="G185" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H185" t="s">
         <v>19</v>
       </c>
       <c r="I185">
-        <v>2017694914</v>
+        <v>2017639390</v>
       </c>
       <c r="J185">
-        <v>1250</v>
+        <v>-1000</v>
       </c>
       <c r="K185">
-        <v>1.74</v>
+        <v>0.99</v>
       </c>
       <c r="L185">
-        <v>-2177.5</v>
+        <v>986.1</v>
       </c>
       <c r="M185">
-        <v>-2177.5</v>
+        <v>986.1</v>
       </c>
       <c r="N185">
-        <v>-2177.5</v>
+        <v>986.1</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B186" t="s">
         <v>51</v>
@@ -8516,28 +8519,28 @@
         <v>17</v>
       </c>
       <c r="G186" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H186" t="s">
         <v>19</v>
       </c>
       <c r="I186">
-        <v>2018580803</v>
+        <v>2017694914</v>
       </c>
       <c r="J186">
-        <v>-1250</v>
+        <v>1250</v>
       </c>
       <c r="K186">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="L186">
-        <v>2125</v>
+        <v>-2177.5</v>
       </c>
       <c r="M186">
-        <v>2125</v>
+        <v>-2177.5</v>
       </c>
       <c r="N186">
-        <v>2125</v>
+        <v>-2177.5</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -8551,37 +8554,37 @@
         <v>21</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E187">
-        <v>439402</v>
+        <v>25345</v>
       </c>
       <c r="F187" t="s">
         <v>17</v>
       </c>
       <c r="G187" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H187" t="s">
         <v>19</v>
       </c>
       <c r="I187">
-        <v>2018650177</v>
+        <v>2018580803</v>
       </c>
       <c r="J187">
-        <v>1400</v>
+        <v>-1250</v>
       </c>
       <c r="K187">
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="L187">
-        <v>-953.1</v>
+        <v>2125</v>
       </c>
       <c r="M187">
-        <v>-953.1</v>
+        <v>2125</v>
       </c>
       <c r="N187">
-        <v>-953.1</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -8595,37 +8598,37 @@
         <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E188">
-        <v>23919</v>
+        <v>439402</v>
       </c>
       <c r="F188" t="s">
         <v>17</v>
       </c>
       <c r="G188" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H188" t="s">
         <v>19</v>
       </c>
       <c r="I188">
-        <v>2018856885</v>
+        <v>2018650177</v>
       </c>
       <c r="J188">
-        <v>-240</v>
+        <v>1400</v>
       </c>
       <c r="K188">
-        <v>3.45</v>
+        <v>0.68</v>
       </c>
       <c r="L188">
-        <v>825.98</v>
+        <v>-953.1</v>
       </c>
       <c r="M188">
-        <v>825.98</v>
+        <v>-953.1</v>
       </c>
       <c r="N188">
-        <v>825.98</v>
+        <v>-953.1</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -8639,42 +8642,42 @@
         <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E189">
-        <v>117274</v>
+        <v>23919</v>
       </c>
       <c r="F189" t="s">
         <v>17</v>
       </c>
       <c r="G189" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H189" t="s">
         <v>19</v>
       </c>
       <c r="I189">
-        <v>2018870969</v>
+        <v>2018856885</v>
       </c>
       <c r="J189">
-        <v>34</v>
+        <v>-240</v>
       </c>
       <c r="K189">
-        <v>28.98</v>
+        <v>3.45</v>
       </c>
       <c r="L189">
-        <v>-987.82</v>
+        <v>825.98</v>
       </c>
       <c r="M189">
-        <v>-987.82</v>
+        <v>825.98</v>
       </c>
       <c r="N189">
-        <v>-987.82</v>
+        <v>825.98</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B190" t="s">
         <v>51</v>
@@ -8683,42 +8686,42 @@
         <v>21</v>
       </c>
       <c r="D190" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E190">
-        <v>12768</v>
+        <v>117274</v>
       </c>
       <c r="F190" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G190" t="s">
-        <v>68</v>
-      </c>
-      <c r="H190">
-        <v>8713542</v>
-      </c>
-      <c r="I190" t="s">
-        <v>19</v>
-      </c>
-      <c r="J190" t="s">
-        <v>19</v>
-      </c>
-      <c r="K190" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H190" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190">
+        <v>2018870969</v>
+      </c>
+      <c r="J190">
+        <v>34</v>
+      </c>
+      <c r="K190">
+        <v>28.98</v>
       </c>
       <c r="L190">
-        <v>162</v>
+        <v>-987.82</v>
       </c>
       <c r="M190">
-        <v>162</v>
+        <v>-987.82</v>
       </c>
       <c r="N190">
-        <v>162</v>
+        <v>-987.82</v>
       </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="B191" t="s">
         <v>51</v>
@@ -8727,37 +8730,37 @@
         <v>21</v>
       </c>
       <c r="D191" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E191">
-        <v>439402</v>
+        <v>12768</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G191" t="s">
-        <v>20</v>
-      </c>
-      <c r="H191" t="s">
-        <v>19</v>
-      </c>
-      <c r="I191">
-        <v>2023521686</v>
-      </c>
-      <c r="J191">
-        <v>-500</v>
-      </c>
-      <c r="K191">
-        <v>0.77</v>
+        <v>68</v>
+      </c>
+      <c r="H191">
+        <v>8713542</v>
+      </c>
+      <c r="I191" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" t="s">
+        <v>19</v>
       </c>
       <c r="L191">
-        <v>383.57</v>
+        <v>162</v>
       </c>
       <c r="M191">
-        <v>383.57</v>
+        <v>162</v>
       </c>
       <c r="N191">
-        <v>383.57</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -8771,10 +8774,10 @@
         <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E192">
-        <v>117274</v>
+        <v>439402</v>
       </c>
       <c r="F192" t="s">
         <v>17</v>
@@ -8786,27 +8789,27 @@
         <v>19</v>
       </c>
       <c r="I192">
-        <v>2023555935</v>
+        <v>2023521686</v>
       </c>
       <c r="J192">
-        <v>-36</v>
+        <v>-500</v>
       </c>
       <c r="K192">
-        <v>30.72</v>
+        <v>0.77</v>
       </c>
       <c r="L192">
-        <v>1100.92</v>
+        <v>383.57</v>
       </c>
       <c r="M192">
-        <v>1100.92</v>
+        <v>383.57</v>
       </c>
       <c r="N192">
-        <v>1100.92</v>
+        <v>383.57</v>
       </c>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="1">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B193" t="s">
         <v>51</v>
@@ -8815,37 +8818,37 @@
         <v>21</v>
       </c>
       <c r="D193" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E193">
-        <v>13207</v>
+        <v>117274</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
       </c>
       <c r="G193" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H193" t="s">
         <v>19</v>
       </c>
       <c r="I193">
-        <v>2025157551</v>
+        <v>2023555935</v>
       </c>
       <c r="J193">
-        <v>240</v>
+        <v>-36</v>
       </c>
       <c r="K193">
-        <v>4.14</v>
+        <v>30.72</v>
       </c>
       <c r="L193">
-        <v>-997.88</v>
+        <v>1100.92</v>
       </c>
       <c r="M193">
-        <v>-997.88</v>
+        <v>1100.92</v>
       </c>
       <c r="N193">
-        <v>-997.88</v>
+        <v>1100.92</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -8859,10 +8862,10 @@
         <v>21</v>
       </c>
       <c r="D194" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E194">
-        <v>339393</v>
+        <v>13207</v>
       </c>
       <c r="F194" t="s">
         <v>17</v>
@@ -8874,27 +8877,27 @@
         <v>19</v>
       </c>
       <c r="I194">
-        <v>2025607702</v>
+        <v>2025157551</v>
       </c>
       <c r="J194">
-        <v>1100</v>
+        <v>240</v>
       </c>
       <c r="K194">
-        <v>0.91</v>
+        <v>4.14</v>
       </c>
       <c r="L194">
-        <v>-999.54</v>
+        <v>-997.88</v>
       </c>
       <c r="M194">
-        <v>-999.54</v>
+        <v>-997.88</v>
       </c>
       <c r="N194">
-        <v>-999.54</v>
+        <v>-997.88</v>
       </c>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="1">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B195" t="s">
         <v>51</v>
@@ -8903,42 +8906,42 @@
         <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E195">
-        <v>439402</v>
+        <v>339393</v>
       </c>
       <c r="F195" t="s">
         <v>17</v>
       </c>
       <c r="G195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H195" t="s">
         <v>19</v>
       </c>
       <c r="I195">
-        <v>2026307952</v>
+        <v>2025607702</v>
       </c>
       <c r="J195">
-        <v>-900</v>
+        <v>1100</v>
       </c>
       <c r="K195">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="L195">
-        <v>623.9</v>
+        <v>-999.54</v>
       </c>
       <c r="M195">
-        <v>623.9</v>
+        <v>-999.54</v>
       </c>
       <c r="N195">
-        <v>623.9</v>
+        <v>-999.54</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="1">
-        <v>44341</v>
+        <v>44329</v>
       </c>
       <c r="B196" t="s">
         <v>51</v>
@@ -8947,42 +8950,42 @@
         <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E196">
-        <v>881633</v>
+        <v>439402</v>
       </c>
       <c r="F196" t="s">
         <v>17</v>
       </c>
       <c r="G196" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H196" t="s">
         <v>19</v>
       </c>
       <c r="I196">
-        <v>2036860316</v>
+        <v>2026307952</v>
       </c>
       <c r="J196">
-        <v>250</v>
+        <v>-900</v>
       </c>
       <c r="K196">
-        <v>3.96</v>
+        <v>0.7</v>
       </c>
       <c r="L196">
-        <v>-993.5</v>
+        <v>623.9</v>
       </c>
       <c r="M196">
-        <v>-993.5</v>
+        <v>623.9</v>
       </c>
       <c r="N196">
-        <v>-993.5</v>
+        <v>623.9</v>
       </c>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="1">
-        <v>44344</v>
+        <v>44341</v>
       </c>
       <c r="B197" t="s">
         <v>51</v>
@@ -8991,37 +8994,301 @@
         <v>21</v>
       </c>
       <c r="D197" t="s">
+        <v>72</v>
+      </c>
+      <c r="E197">
+        <v>881633</v>
+      </c>
+      <c r="F197" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197">
+        <v>2036860316</v>
+      </c>
+      <c r="J197">
+        <v>250</v>
+      </c>
+      <c r="K197">
+        <v>3.96</v>
+      </c>
+      <c r="L197">
+        <v>-993.5</v>
+      </c>
+      <c r="M197">
+        <v>-993.5</v>
+      </c>
+      <c r="N197">
+        <v>-993.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B198" t="s">
+        <v>51</v>
+      </c>
+      <c r="C198" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" t="s">
         <v>52</v>
       </c>
-      <c r="E197">
+      <c r="E198">
         <v>112808</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F198" t="s">
         <v>67</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G198" t="s">
         <v>68</v>
       </c>
-      <c r="H197">
+      <c r="H198">
         <v>8715052</v>
       </c>
-      <c r="I197" t="s">
-        <v>19</v>
-      </c>
-      <c r="J197" t="s">
-        <v>19</v>
-      </c>
-      <c r="K197" t="s">
-        <v>19</v>
-      </c>
-      <c r="L197">
+      <c r="I198" t="s">
+        <v>19</v>
+      </c>
+      <c r="J198" t="s">
+        <v>19</v>
+      </c>
+      <c r="K198" t="s">
+        <v>19</v>
+      </c>
+      <c r="L198">
         <v>61.44</v>
       </c>
-      <c r="M197">
+      <c r="M198">
         <v>61.44</v>
       </c>
-      <c r="N197">
+      <c r="N198">
         <v>61.44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B199" t="s">
+        <v>51</v>
+      </c>
+      <c r="C199" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" t="s">
+        <v>71</v>
+      </c>
+      <c r="E199">
+        <v>13207</v>
+      </c>
+      <c r="F199" t="s">
+        <v>67</v>
+      </c>
+      <c r="G199" t="s">
+        <v>68</v>
+      </c>
+      <c r="H199">
+        <v>8745582</v>
+      </c>
+      <c r="I199" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199" t="s">
+        <v>19</v>
+      </c>
+      <c r="K199" t="s">
+        <v>19</v>
+      </c>
+      <c r="L199">
+        <v>14.4</v>
+      </c>
+      <c r="M199">
+        <v>14.4</v>
+      </c>
+      <c r="N199">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B200" t="s">
+        <v>51</v>
+      </c>
+      <c r="C200" t="s">
+        <v>21</v>
+      </c>
+      <c r="D200" t="s">
+        <v>63</v>
+      </c>
+      <c r="E200">
+        <v>13110</v>
+      </c>
+      <c r="F200" t="s">
+        <v>67</v>
+      </c>
+      <c r="G200" t="s">
+        <v>68</v>
+      </c>
+      <c r="H200">
+        <v>8779002</v>
+      </c>
+      <c r="I200" t="s">
+        <v>19</v>
+      </c>
+      <c r="J200" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" t="s">
+        <v>19</v>
+      </c>
+      <c r="L200">
+        <v>66.6</v>
+      </c>
+      <c r="M200">
+        <v>66.6</v>
+      </c>
+      <c r="N200">
+        <v>66.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B201" t="s">
+        <v>51</v>
+      </c>
+      <c r="C201" t="s">
+        <v>21</v>
+      </c>
+      <c r="D201" t="s">
+        <v>73</v>
+      </c>
+      <c r="E201">
+        <v>23303764</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201">
+        <v>2045249501</v>
+      </c>
+      <c r="J201">
+        <v>34</v>
+      </c>
+      <c r="K201" t="s">
+        <v>19</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B202" t="s">
+        <v>51</v>
+      </c>
+      <c r="C202" t="s">
+        <v>21</v>
+      </c>
+      <c r="D202" t="s">
+        <v>73</v>
+      </c>
+      <c r="E202">
+        <v>23303764</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202">
+        <v>2045415400</v>
+      </c>
+      <c r="J202">
+        <v>34</v>
+      </c>
+      <c r="K202" t="s">
+        <v>19</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B203" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" t="s">
+        <v>21</v>
+      </c>
+      <c r="D203" t="s">
+        <v>73</v>
+      </c>
+      <c r="E203">
+        <v>23303764</v>
+      </c>
+      <c r="F203" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203">
+        <v>2045415419</v>
+      </c>
+      <c r="J203">
+        <v>-34</v>
+      </c>
+      <c r="K203" t="s">
+        <v>19</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
